--- a/firebase_data_from_spyEnsembleEOE+VSMO.xlsx
+++ b/firebase_data_from_spyEnsembleEOE+VSMO.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Thinkpad E14\Documents\GitHub\Arkad\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E56785-E556-4FC8-A9D7-12A6E22C5412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Fecha</t>
-  </si>
   <si>
     <t>Direction</t>
   </si>
@@ -33,15 +36,18 @@
   <si>
     <t>proba1</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,13 +111,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -183,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -217,9 +232,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -392,34 +408,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -442,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -465,7 +483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -488,7 +506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -511,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -534,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -557,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -580,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -603,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -626,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -649,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -672,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -695,7 +713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -718,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -741,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -764,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -787,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -810,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -833,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -856,7 +874,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -879,7 +897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -902,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -925,7 +943,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -948,7 +966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -971,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -994,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1011,13 +1029,13 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>0.5483870967741935</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="G27">
-        <v>0.4516129032258064</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.45161290322580638</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1040,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1063,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1086,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1109,7 +1127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1152,10 +1170,10 @@
         <v>0.5641025641025641</v>
       </c>
       <c r="G33">
-        <v>0.4358974358974358</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.43589743589743579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1178,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1201,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1224,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1247,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1270,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1293,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1316,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1339,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1362,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1385,7 +1403,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1408,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1431,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1454,7 +1472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1500,7 +1518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1523,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1546,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1569,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1592,7 +1610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1615,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1638,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1655,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.4603174603174603</v>
+        <v>0.46031746031746029</v>
       </c>
       <c r="G55">
-        <v>0.5396825396825397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.53968253968253965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1684,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1707,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1730,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1753,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1776,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1799,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1822,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1845,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1868,7 +1886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1891,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1914,7 +1932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1937,7 +1955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1983,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2006,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2029,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2052,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2098,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2121,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2161,13 +2179,13 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.5128205128205129</v>
+        <v>0.51282051282051289</v>
       </c>
       <c r="G77">
-        <v>0.4871794871794872</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.48717948717948723</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2190,7 +2208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2236,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2259,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2305,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2328,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2351,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2368,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="F86">
-        <v>0.5064935064935066</v>
+        <v>0.50649350649350655</v>
       </c>
       <c r="G86">
         <v>0.4935064935064935</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2397,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2420,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2440,10 +2458,10 @@
         <v>0.4935064935064935</v>
       </c>
       <c r="G89">
-        <v>0.5064935064935066</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.50649350649350655</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2466,7 +2484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2483,13 +2501,13 @@
         <v>1</v>
       </c>
       <c r="F91">
-        <v>0.4936708860759494</v>
+        <v>0.49367088607594939</v>
       </c>
       <c r="G91">
-        <v>0.5063291139240507</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.50632911392405067</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2512,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2535,7 +2553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2558,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2581,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2604,7 +2622,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2627,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2650,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2673,7 +2691,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2696,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2719,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2762,10 +2780,10 @@
         <v>0.4935064935064935</v>
       </c>
       <c r="G103">
-        <v>0.5064935064935066</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.50649350649350655</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2788,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2811,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2834,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2857,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2880,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2900,10 +2918,10 @@
         <v>0.4935064935064935</v>
       </c>
       <c r="G109">
-        <v>0.5064935064935066</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>0.50649350649350655</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2926,7 +2944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2949,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2972,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2995,7 +3013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3012,13 +3030,13 @@
         <v>1</v>
       </c>
       <c r="F114">
-        <v>0.5063291139240507</v>
+        <v>0.50632911392405067</v>
       </c>
       <c r="G114">
-        <v>0.4936708860759494</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>0.49367088607594939</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3041,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3087,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3110,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3127,13 +3145,13 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>0.5121951219512195</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="G119">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>0.48780487804878048</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3156,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3179,7 +3197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3219,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0.5232558139534884</v>
+        <v>0.52325581395348841</v>
       </c>
       <c r="G123">
-        <v>0.4767441860465116</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>0.47674418604651159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3248,7 +3266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3294,7 +3312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3311,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0.5227272727272727</v>
+        <v>0.52272727272727271</v>
       </c>
       <c r="G127">
-        <v>0.4772727272727273</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>0.47727272727272729</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3340,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3363,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3380,13 +3398,13 @@
         <v>1</v>
       </c>
       <c r="F130">
-        <v>0.4772727272727273</v>
+        <v>0.47727272727272729</v>
       </c>
       <c r="G130">
-        <v>0.5227272727272727</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>0.52272727272727271</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3409,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3432,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3455,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3478,7 +3496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3501,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3547,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3570,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3593,7 +3611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3616,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3639,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3685,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3708,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3731,7 +3749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3754,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3777,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3800,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3817,13 +3835,13 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>0.4666666666666666</v>
+        <v>0.46666666666666662</v>
       </c>
       <c r="G149">
-        <v>0.5333333333333333</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3846,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3869,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3892,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3909,13 +3927,13 @@
         <v>1</v>
       </c>
       <c r="F153">
-        <v>0.4719101123595505</v>
+        <v>0.47191011235955049</v>
       </c>
       <c r="G153">
         <v>0.5280898876404494</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3938,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3955,13 +3973,13 @@
         <v>1</v>
       </c>
       <c r="F155">
-        <v>0.4725274725274725</v>
+        <v>0.47252747252747251</v>
       </c>
       <c r="G155">
-        <v>0.5274725274725275</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>0.52747252747252749</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3984,7 +4002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4007,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4024,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>0.4719101123595505</v>
+        <v>0.47191011235955049</v>
       </c>
       <c r="G158">
         <v>0.5280898876404494</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4053,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4076,7 +4094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4145,7 +4163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4191,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4237,7 +4255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4260,7 +4278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4283,7 +4301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4306,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4329,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4352,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4392,13 +4410,13 @@
         <v>1</v>
       </c>
       <c r="F174">
-        <v>0.4845360824742269</v>
+        <v>0.48453608247422691</v>
       </c>
       <c r="G174">
-        <v>0.5154639175257733</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>0.51546391752577325</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4421,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4438,13 +4456,13 @@
         <v>1</v>
       </c>
       <c r="F176">
-        <v>0.4845360824742269</v>
+        <v>0.48453608247422691</v>
       </c>
       <c r="G176">
-        <v>0.5154639175257733</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>0.51546391752577325</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4467,7 +4485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4490,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4513,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4536,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4559,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4582,7 +4600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4605,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4628,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4651,7 +4669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4674,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4697,7 +4715,7 @@
         <v>0.5056179775280899</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4720,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4743,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4766,7 +4784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4812,7 +4830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4835,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4858,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4881,7 +4899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4904,7 +4922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4921,13 +4939,13 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>0.4941176470588236</v>
+        <v>0.49411764705882361</v>
       </c>
       <c r="G197">
-        <v>0.5058823529411764</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>0.50588235294117645</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4950,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4973,7 +4991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4990,13 +5008,13 @@
         <v>1</v>
       </c>
       <c r="F200">
-        <v>0.5060240963855421</v>
+        <v>0.50602409638554213</v>
       </c>
       <c r="G200">
-        <v>0.4939759036144578</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>0.49397590361445781</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5019,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5042,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5065,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5088,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5111,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5134,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5157,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5174,13 +5192,13 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>0.4941176470588236</v>
+        <v>0.49411764705882361</v>
       </c>
       <c r="G208">
-        <v>0.5058823529411764</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>0.50588235294117645</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5203,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5226,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5249,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5272,7 +5290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5295,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5318,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5341,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5364,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5387,7 +5405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5410,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5433,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5456,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5479,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5502,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5519,13 +5537,13 @@
         <v>1</v>
       </c>
       <c r="F223">
-        <v>0.5058823529411764</v>
+        <v>0.50588235294117645</v>
       </c>
       <c r="G223">
-        <v>0.4941176470588236</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>0.49411764705882361</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5548,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5571,7 +5589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5594,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5617,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5640,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5657,13 +5675,13 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>0.4941176470588236</v>
+        <v>0.49411764705882361</v>
       </c>
       <c r="G229">
-        <v>0.5058823529411764</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>0.50588235294117645</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5686,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5709,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5732,7 +5750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5755,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5778,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5801,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5824,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5841,13 +5859,13 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>0.4880952380952381</v>
+        <v>0.48809523809523808</v>
       </c>
       <c r="G237">
-        <v>0.5119047619047619</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>0.51190476190476186</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5870,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5893,7 +5911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5916,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5939,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5962,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5985,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6008,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6031,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6054,7 +6072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6077,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6100,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6123,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -6146,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -6169,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -6192,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -6209,13 +6227,13 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>0.4835164835164835</v>
+        <v>0.48351648351648352</v>
       </c>
       <c r="G253">
-        <v>0.5164835164835165</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>0.51648351648351654</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -6238,7 +6256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -6261,7 +6279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -6284,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -6307,7 +6325,7 @@
         <v>0.4946236559139785</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -6330,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -6353,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -6376,7 +6394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -6399,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -6422,7 +6440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -6445,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -6468,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -6491,7 +6509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -6514,7 +6532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -6560,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -6583,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -6606,7 +6624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -6629,7 +6647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -6652,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -6675,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -6698,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -6721,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -6744,7 +6762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -6767,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -6790,7 +6808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -6813,7 +6831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6836,7 +6854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6882,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6899,13 +6917,13 @@
         <v>1</v>
       </c>
       <c r="F283">
-        <v>0.5052631578947369</v>
+        <v>0.50526315789473686</v>
       </c>
       <c r="G283">
         <v>0.4947368421052632</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6928,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6974,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -7020,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -7043,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -7066,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -7089,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -7112,7 +7130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -7135,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -7158,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -7175,13 +7193,13 @@
         <v>1</v>
       </c>
       <c r="F295">
-        <v>0.4842105263157894</v>
+        <v>0.48421052631578942</v>
       </c>
       <c r="G295">
-        <v>0.5157894736842106</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>0.51578947368421058</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -7198,13 +7216,13 @@
         <v>0</v>
       </c>
       <c r="F296">
-        <v>0.4787234042553192</v>
+        <v>0.47872340425531917</v>
       </c>
       <c r="G296">
-        <v>0.5212765957446809</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>0.52127659574468088</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -7227,7 +7245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -7244,13 +7262,13 @@
         <v>1</v>
       </c>
       <c r="F298">
-        <v>0.4787234042553192</v>
+        <v>0.47872340425531917</v>
       </c>
       <c r="G298">
-        <v>0.5212765957446809</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+        <v>0.52127659574468088</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -7273,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -7296,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -7319,7 +7337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -7342,7 +7360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -7365,7 +7383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -7388,7 +7406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -7411,7 +7429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -7434,7 +7452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -7457,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -7480,7 +7498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -7503,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -7526,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -7549,7 +7567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -7572,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -7595,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -7618,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -7641,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -7664,7 +7682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -7687,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -7710,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -7733,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -7756,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -7779,7 +7797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -7796,13 +7814,13 @@
         <v>0</v>
       </c>
       <c r="F322">
-        <v>0.5180722891566265</v>
+        <v>0.51807228915662651</v>
       </c>
       <c r="G322">
-        <v>0.4819277108433735</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+        <v>0.48192771084337349</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -7825,7 +7843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -7848,7 +7866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -7871,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -7894,7 +7912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -7917,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -7940,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -7963,7 +7981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -7986,7 +8004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -8009,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -8032,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -8055,7 +8073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -8078,7 +8096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -8101,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -8124,7 +8142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -8147,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -8170,7 +8188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -8193,7 +8211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -8216,7 +8234,7 @@
         <v>0.5056179775280899</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -8239,7 +8257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -8262,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -8279,13 +8297,13 @@
         <v>0</v>
       </c>
       <c r="F343">
-        <v>0.5111111111111112</v>
+        <v>0.51111111111111118</v>
       </c>
       <c r="G343">
-        <v>0.4888888888888889</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -8308,7 +8326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -8325,13 +8343,13 @@
         <v>1</v>
       </c>
       <c r="F345">
-        <v>0.4945054945054945</v>
+        <v>0.49450549450549453</v>
       </c>
       <c r="G345">
-        <v>0.5054945054945055</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
+        <v>0.50549450549450547</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -8354,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -8377,7 +8395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -8400,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -8423,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -8446,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -8469,7 +8487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -8492,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -8515,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -8538,7 +8556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -8561,7 +8579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -8584,7 +8602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -8607,7 +8625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -8630,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -8653,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -8676,7 +8694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -8722,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -8745,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -8762,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="F364">
-        <v>0.5113636363636364</v>
+        <v>0.51136363636363635</v>
       </c>
       <c r="G364">
-        <v>0.4886363636363636</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>0.48863636363636359</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -8788,10 +8806,10 @@
         <v>0.4942528735632184</v>
       </c>
       <c r="G365">
-        <v>0.5057471264367817</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>0.50574712643678166</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -8814,7 +8832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -8837,7 +8855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -8854,13 +8872,13 @@
         <v>1</v>
       </c>
       <c r="F368">
-        <v>0.5057471264367817</v>
+        <v>0.50574712643678166</v>
       </c>
       <c r="G368">
         <v>0.4942528735632184</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -8883,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -8906,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -8929,7 +8947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -8952,7 +8970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -8975,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -8998,7 +9016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -9021,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -9044,7 +9062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -9061,13 +9079,13 @@
         <v>1</v>
       </c>
       <c r="F377">
-        <v>0.5060240963855421</v>
+        <v>0.50602409638554213</v>
       </c>
       <c r="G377">
-        <v>0.4939759036144578</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7">
+        <v>0.49397590361445781</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -9090,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -9113,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -9136,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -9159,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -9182,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -9205,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -9228,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -9251,7 +9269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -9274,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -9297,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -9320,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -9343,7 +9361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -9366,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -9383,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="F391">
-        <v>0.5348837209302326</v>
+        <v>0.53488372093023262</v>
       </c>
       <c r="G391">
-        <v>0.4651162790697674</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7">
+        <v>0.46511627906976738</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -9412,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -9435,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -9458,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -9481,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -9504,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -9527,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -9550,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -9573,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -9590,13 +9608,13 @@
         <v>1</v>
       </c>
       <c r="F400">
-        <v>0.4743589743589744</v>
+        <v>0.47435897435897439</v>
       </c>
       <c r="G400">
-        <v>0.5256410256410257</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7">
+        <v>0.52564102564102566</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -9613,13 +9631,13 @@
         <v>1</v>
       </c>
       <c r="F401">
-        <v>0.5324675324675324</v>
+        <v>0.53246753246753242</v>
       </c>
       <c r="G401">
-        <v>0.4675324675324675</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7">
+        <v>0.46753246753246752</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -9642,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -9665,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -9688,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -9711,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -9734,7 +9752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -9757,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -9780,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -9803,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -9826,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -9849,7 +9867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -9872,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -9889,13 +9907,13 @@
         <v>0</v>
       </c>
       <c r="F413">
-        <v>0.5324675324675324</v>
+        <v>0.53246753246753242</v>
       </c>
       <c r="G413">
-        <v>0.4675324675324675</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
+        <v>0.46753246753246752</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -9918,7 +9936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -9941,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -9964,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -9987,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -10010,7 +10028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -10033,7 +10051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -10056,7 +10074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -10079,7 +10097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -10102,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -10125,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -10148,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -10171,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -10194,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -10211,13 +10229,13 @@
         <v>1</v>
       </c>
       <c r="F427">
-        <v>0.4810126582278481</v>
+        <v>0.48101265822784811</v>
       </c>
       <c r="G427">
-        <v>0.5189873417721519</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7">
+        <v>0.51898734177215189</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -10240,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -10263,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -10286,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -10309,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -10326,13 +10344,13 @@
         <v>0</v>
       </c>
       <c r="F432">
-        <v>0.5316455696202531</v>
+        <v>0.53164556962025311</v>
       </c>
       <c r="G432">
-        <v>0.4683544303797468</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7">
+        <v>0.46835443037974678</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -10355,7 +10373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -10372,13 +10390,13 @@
         <v>1</v>
       </c>
       <c r="F434">
-        <v>0.5189873417721519</v>
+        <v>0.51898734177215189</v>
       </c>
       <c r="G434">
-        <v>0.4810126582278481</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
+        <v>0.48101265822784811</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -10401,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -10424,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -10447,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -10470,7 +10488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -10493,7 +10511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -10516,7 +10534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -10539,7 +10557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -10562,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -10585,7 +10603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -10602,13 +10620,13 @@
         <v>0</v>
       </c>
       <c r="F444">
-        <v>0.475</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="G444">
-        <v>0.525</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -10631,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -10654,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -10677,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -10694,13 +10712,13 @@
         <v>1</v>
       </c>
       <c r="F448">
-        <v>0.5060240963855421</v>
+        <v>0.50602409638554213</v>
       </c>
       <c r="G448">
-        <v>0.4939759036144578</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7">
+        <v>0.49397590361445781</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -10717,13 +10735,13 @@
         <v>1</v>
       </c>
       <c r="F449">
-        <v>0.5060240963855421</v>
+        <v>0.50602409638554213</v>
       </c>
       <c r="G449">
-        <v>0.4939759036144578</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7">
+        <v>0.49397590361445781</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -10740,13 +10758,13 @@
         <v>0</v>
       </c>
       <c r="F450">
-        <v>0.5119047619047619</v>
+        <v>0.51190476190476186</v>
       </c>
       <c r="G450">
-        <v>0.4880952380952381</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7">
+        <v>0.48809523809523808</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -10763,13 +10781,13 @@
         <v>0</v>
       </c>
       <c r="F451">
-        <v>0.5060240963855421</v>
+        <v>0.50602409638554213</v>
       </c>
       <c r="G451">
-        <v>0.4939759036144578</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7">
+        <v>0.49397590361445781</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -10792,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -10809,13 +10827,13 @@
         <v>1</v>
       </c>
       <c r="F453">
-        <v>0.4939759036144578</v>
+        <v>0.49397590361445781</v>
       </c>
       <c r="G453">
-        <v>0.5060240963855421</v>
-      </c>
-    </row>
-    <row r="454" spans="1:7">
+        <v>0.50602409638554213</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -10838,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -10861,7 +10879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -10884,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -10907,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -10930,7 +10948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -10953,7 +10971,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -10976,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -10999,7 +11017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11022,7 +11040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11045,7 +11063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -11068,7 +11086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -11091,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -11114,7 +11132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -11131,13 +11149,13 @@
         <v>1</v>
       </c>
       <c r="F467">
-        <v>0.5121951219512195</v>
+        <v>0.51219512195121952</v>
       </c>
       <c r="G467">
-        <v>0.4878048780487805</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7">
+        <v>0.48780487804878048</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -11160,7 +11178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -11183,7 +11201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -11206,7 +11224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -11229,7 +11247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -11246,13 +11264,13 @@
         <v>0</v>
       </c>
       <c r="F472">
-        <v>0.4939759036144578</v>
+        <v>0.49397590361445781</v>
       </c>
       <c r="G472">
-        <v>0.5060240963855421</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7">
+        <v>0.50602409638554213</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -11275,7 +11293,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -11298,7 +11316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -11321,7 +11339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -11338,13 +11356,13 @@
         <v>0</v>
       </c>
       <c r="F476">
-        <v>0.5060240963855421</v>
+        <v>0.50602409638554213</v>
       </c>
       <c r="G476">
-        <v>0.4939759036144578</v>
-      </c>
-    </row>
-    <row r="477" spans="1:7">
+        <v>0.49397590361445781</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -11367,7 +11385,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -11390,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -11407,13 +11425,13 @@
         <v>0</v>
       </c>
       <c r="F479">
-        <v>0.5061728395061729</v>
+        <v>0.50617283950617287</v>
       </c>
       <c r="G479">
-        <v>0.4938271604938271</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7">
+        <v>0.49382716049382708</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -11436,7 +11454,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -11459,7 +11477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -11482,7 +11500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -11499,13 +11517,13 @@
         <v>1</v>
       </c>
       <c r="F483">
-        <v>0.5063291139240507</v>
+        <v>0.50632911392405067</v>
       </c>
       <c r="G483">
-        <v>0.4936708860759494</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7">
+        <v>0.49367088607594939</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -11528,7 +11546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -11551,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -11574,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -11597,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -11614,13 +11632,13 @@
         <v>1</v>
       </c>
       <c r="F488">
-        <v>0.5116279069767442</v>
+        <v>0.51162790697674421</v>
       </c>
       <c r="G488">
-        <v>0.4883720930232557</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7">
+        <v>0.48837209302325568</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -11643,7 +11661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -11660,13 +11678,13 @@
         <v>0</v>
       </c>
       <c r="F490">
-        <v>0.5176470588235295</v>
+        <v>0.51764705882352946</v>
       </c>
       <c r="G490">
-        <v>0.4823529411764707</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7">
+        <v>0.48235294117647071</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -11689,7 +11707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -11706,13 +11724,13 @@
         <v>1</v>
       </c>
       <c r="F492">
-        <v>0.5119047619047619</v>
+        <v>0.51190476190476186</v>
       </c>
       <c r="G492">
-        <v>0.4880952380952381</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7">
+        <v>0.48809523809523808</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -11735,7 +11753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -11758,7 +11776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -11781,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -11804,7 +11822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -11827,7 +11845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -11850,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -11873,7 +11891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -11896,7 +11914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -11919,7 +11937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -11942,7 +11960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -11965,7 +11983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -11988,7 +12006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -12011,7 +12029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -12034,7 +12052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -12057,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -12074,13 +12092,13 @@
         <v>1</v>
       </c>
       <c r="F508">
-        <v>0.4936708860759494</v>
+        <v>0.49367088607594939</v>
       </c>
       <c r="G508">
-        <v>0.5063291139240507</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7">
+        <v>0.50632911392405067</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -12103,7 +12121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -12120,13 +12138,13 @@
         <v>0</v>
       </c>
       <c r="F510">
-        <v>0.5128205128205129</v>
+        <v>0.51282051282051289</v>
       </c>
       <c r="G510">
-        <v>0.4871794871794872</v>
-      </c>
-    </row>
-    <row r="511" spans="1:7">
+        <v>0.48717948717948723</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -12149,7 +12167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -12172,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -12195,12 +12213,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514" s="1">
         <v>512</v>
       </c>
       <c r="B514" s="2">
-        <v>45824.47916666666</v>
+        <v>45824.479166666657</v>
       </c>
       <c r="C514">
         <v>1</v>
@@ -12218,12 +12236,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515" s="1">
         <v>513</v>
       </c>
       <c r="B515" s="2">
-        <v>45825.47916666666</v>
+        <v>45825.479166666657</v>
       </c>
       <c r="C515">
         <v>0</v>
@@ -12241,12 +12259,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516" s="1">
         <v>514</v>
       </c>
       <c r="B516" s="2">
-        <v>45826.47916666666</v>
+        <v>45826.479166666657</v>
       </c>
       <c r="C516">
         <v>0</v>
@@ -12264,12 +12282,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517" s="1">
         <v>515</v>
       </c>
       <c r="B517" s="2">
-        <v>45828.47916666666</v>
+        <v>45828.479166666657</v>
       </c>
       <c r="C517">
         <v>0</v>
@@ -12287,12 +12305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518" s="1">
         <v>516</v>
       </c>
       <c r="B518" s="2">
-        <v>45831.47916666666</v>
+        <v>45831.479166666657</v>
       </c>
       <c r="C518">
         <v>1</v>
@@ -12310,12 +12328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519" s="1">
         <v>517</v>
       </c>
       <c r="B519" s="2">
-        <v>45832.47916666666</v>
+        <v>45832.479166666657</v>
       </c>
       <c r="C519">
         <v>1</v>
@@ -12333,12 +12351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520" s="1">
         <v>518</v>
       </c>
       <c r="B520" s="2">
-        <v>45833.47916666666</v>
+        <v>45833.479166666657</v>
       </c>
       <c r="C520">
         <v>0</v>
@@ -12356,12 +12374,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521" s="1">
         <v>519</v>
       </c>
       <c r="B521" s="2">
-        <v>45834.47916666666</v>
+        <v>45834.479166666657</v>
       </c>
       <c r="D521">
         <v>0</v>

--- a/firebase_data_from_spyEnsembleEOE+VSMO.xlsx
+++ b/firebase_data_from_spyEnsembleEOE+VSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="617">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,12 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2216,7 +2222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H564"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2268,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2294,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2320,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2346,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2372,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2398,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2424,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2450,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2476,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2502,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2528,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2554,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2580,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2606,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2632,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2658,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2684,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2710,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2736,7 +2742,7 @@
         <v>0.5</v>
       </c>
       <c r="H20" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2762,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2788,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2814,7 +2820,7 @@
         <v>0.52</v>
       </c>
       <c r="H23" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2840,7 +2846,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2866,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2892,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2918,7 +2924,7 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H27" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2944,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2970,7 +2976,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2996,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3022,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3048,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3074,7 +3080,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H33" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3100,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3126,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3152,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3178,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3204,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3230,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3256,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3282,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3308,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3334,7 +3340,7 @@
         <v>0.54</v>
       </c>
       <c r="H43" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3360,7 +3366,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3386,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3412,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3438,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3464,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3490,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3516,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3542,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3568,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3594,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3620,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3646,7 +3652,7 @@
         <v>0.5396825396825397</v>
       </c>
       <c r="H55" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3672,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3698,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3724,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3750,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3776,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3802,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3828,7 +3834,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3854,7 +3860,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3880,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3906,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3932,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3958,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3984,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4010,7 +4016,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4036,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4062,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4088,7 +4094,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4114,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4140,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4166,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4192,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4218,7 +4224,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H77" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4244,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4270,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4296,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4322,7 +4328,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4348,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4374,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4400,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4426,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4452,7 +4458,7 @@
         <v>0.4935064935064935</v>
       </c>
       <c r="H86" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4478,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4504,7 +4510,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4530,7 +4536,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H89" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4556,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4582,7 +4588,7 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="H91" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4608,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4634,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4660,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4686,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4712,7 +4718,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4738,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4764,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4790,7 +4796,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4816,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4842,7 +4848,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4868,7 +4874,7 @@
         <v>0.5</v>
       </c>
       <c r="H102" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4894,7 +4900,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H103" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4920,7 +4926,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4946,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4972,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4998,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5024,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5050,7 +5056,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H109" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5076,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5102,7 +5108,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5128,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5154,7 +5160,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5180,7 +5186,7 @@
         <v>0.4936708860759494</v>
       </c>
       <c r="H114" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5206,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5232,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5258,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5284,7 +5290,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5310,7 +5316,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H119" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5336,7 +5342,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5362,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5388,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5414,7 +5420,7 @@
         <v>0.4767441860465116</v>
       </c>
       <c r="H123" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5440,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5466,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5492,7 +5498,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5518,7 +5524,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H127" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5544,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5570,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5596,7 +5602,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H130" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5622,7 +5628,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5648,7 +5654,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5674,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5700,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5726,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5752,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5778,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5804,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5830,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5856,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5882,7 +5888,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5908,7 +5914,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5934,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5960,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5986,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6012,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6038,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6064,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6090,7 +6096,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H149" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6116,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6142,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6168,7 +6174,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6194,7 +6200,7 @@
         <v>0.5280898876404494</v>
       </c>
       <c r="H153" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6220,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6246,7 +6252,7 @@
         <v>0.5274725274725275</v>
       </c>
       <c r="H155" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6272,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6298,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6324,7 +6330,7 @@
         <v>0.5280898876404494</v>
       </c>
       <c r="H158" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6350,7 +6356,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6376,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6402,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6428,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6454,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6480,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6506,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6532,7 +6538,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6558,7 +6564,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6584,7 +6590,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6610,7 +6616,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6636,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6662,7 +6668,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6688,7 +6694,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6714,7 +6720,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6740,7 +6746,7 @@
         <v>0.5154639175257733</v>
       </c>
       <c r="H174" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6766,7 +6772,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6792,7 +6798,7 @@
         <v>0.5154639175257733</v>
       </c>
       <c r="H176" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6818,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6844,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6870,7 +6876,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6896,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6922,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6948,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6974,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7000,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7026,7 +7032,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7052,7 +7058,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7078,7 +7084,7 @@
         <v>0.5056179775280899</v>
       </c>
       <c r="H187" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7104,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7130,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7156,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7182,7 +7188,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7208,7 +7214,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7234,7 +7240,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7260,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7286,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7312,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="H196" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7338,7 +7344,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H197" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7364,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7390,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7416,7 +7422,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H200" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7442,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7468,7 +7474,7 @@
         <v>1</v>
       </c>
       <c r="H202" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7494,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7520,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7546,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7572,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7598,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7624,7 +7630,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H208" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7650,7 +7656,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7676,7 +7682,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7702,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7728,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7754,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7780,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7806,7 +7812,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7832,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7858,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7884,7 +7890,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7910,7 +7916,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7936,7 +7942,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7962,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7988,7 +7994,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8014,7 +8020,7 @@
         <v>0.4941176470588236</v>
       </c>
       <c r="H223" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8040,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8066,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8092,7 +8098,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8118,7 +8124,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8144,7 +8150,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8170,7 +8176,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H229" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8196,7 +8202,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8222,7 +8228,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8248,7 +8254,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8274,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8300,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8326,7 +8332,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8352,7 +8358,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8378,7 +8384,7 @@
         <v>0.5119047619047619</v>
       </c>
       <c r="H237" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8404,7 +8410,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8430,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8456,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8482,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8508,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8534,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8560,7 +8566,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8586,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8612,7 +8618,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8638,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8664,7 +8670,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8690,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8716,7 +8722,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8742,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8768,7 +8774,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8794,7 +8800,7 @@
         <v>0.5164835164835165</v>
       </c>
       <c r="H253" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8820,7 +8826,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8846,7 +8852,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8872,7 +8878,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8898,7 +8904,7 @@
         <v>0.4946236559139785</v>
       </c>
       <c r="H257" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8924,7 +8930,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8950,7 +8956,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8976,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9002,7 +9008,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9028,7 +9034,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9054,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9080,7 +9086,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9106,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9132,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9158,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9184,7 +9190,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9210,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9236,7 +9242,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9262,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9288,7 +9294,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9314,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9340,7 +9346,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9366,7 +9372,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9392,7 +9398,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9418,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9444,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9470,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9496,7 +9502,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9522,7 +9528,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9548,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9574,7 +9580,7 @@
         <v>0.4947368421052632</v>
       </c>
       <c r="H283" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9600,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9626,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9652,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9678,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9704,7 +9710,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9730,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9756,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9782,7 +9788,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9808,7 +9814,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9834,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9860,7 +9866,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9886,7 +9892,7 @@
         <v>0.5157894736842106</v>
       </c>
       <c r="H295" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9912,7 +9918,7 @@
         <v>0.5212765957446809</v>
       </c>
       <c r="H296" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9938,7 +9944,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9964,7 +9970,7 @@
         <v>0.5212765957446809</v>
       </c>
       <c r="H298" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9990,7 +9996,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10016,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10042,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10068,7 +10074,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10094,7 +10100,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10120,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10146,7 +10152,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10172,7 +10178,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10198,7 +10204,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10224,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="H308" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10250,7 +10256,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10276,7 +10282,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10302,7 +10308,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10328,7 +10334,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10354,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10380,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10406,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10432,7 +10438,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10458,7 +10464,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10484,7 +10490,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10510,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10536,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10562,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10588,7 +10594,7 @@
         <v>0.4819277108433735</v>
       </c>
       <c r="H322" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10614,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10640,7 +10646,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10666,7 +10672,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10692,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="H326" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10718,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10744,7 +10750,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10770,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10796,7 +10802,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10822,7 +10828,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10848,7 +10854,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10874,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10900,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10926,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10952,7 +10958,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10978,7 +10984,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11004,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11030,7 +11036,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11056,7 +11062,7 @@
         <v>0.5056179775280899</v>
       </c>
       <c r="H340" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11082,7 +11088,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11108,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11134,7 +11140,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H343" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11160,7 +11166,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11186,7 +11192,7 @@
         <v>0.5054945054945055</v>
       </c>
       <c r="H345" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11212,7 +11218,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11238,7 +11244,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11264,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11290,7 +11296,7 @@
         <v>1</v>
       </c>
       <c r="H349" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11316,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11342,7 +11348,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11368,7 +11374,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11394,7 +11400,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11420,7 +11426,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11446,7 +11452,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11472,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11498,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11524,7 +11530,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11550,7 +11556,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11576,7 +11582,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11602,7 +11608,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11628,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11654,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11680,7 +11686,7 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="H364" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11706,7 +11712,7 @@
         <v>0.5057471264367817</v>
       </c>
       <c r="H365" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11732,7 +11738,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11758,7 +11764,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11784,7 +11790,7 @@
         <v>0.4942528735632184</v>
       </c>
       <c r="H368" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11810,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11836,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11862,7 +11868,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11888,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11914,7 +11920,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11940,7 +11946,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11966,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11992,7 +11998,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12018,7 +12024,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H377" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12044,7 +12050,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12070,7 +12076,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12096,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12122,7 +12128,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12148,7 +12154,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12174,7 +12180,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12200,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12226,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12252,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12278,7 +12284,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12304,7 +12310,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12330,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12356,7 +12362,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12382,7 +12388,7 @@
         <v>0.4651162790697674</v>
       </c>
       <c r="H391" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12408,7 +12414,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12434,7 +12440,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12460,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12486,7 +12492,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12512,7 +12518,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12538,7 +12544,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12564,7 +12570,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12590,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12616,7 +12622,7 @@
         <v>0.5256410256410257</v>
       </c>
       <c r="H400" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12642,7 +12648,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H401" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12668,7 +12674,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12694,7 +12700,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12720,7 +12726,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12746,7 +12752,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12772,7 +12778,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12798,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12824,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12850,7 +12856,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12876,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12902,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12928,7 +12934,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12954,7 +12960,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H413" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12980,7 +12986,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13006,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13032,7 +13038,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13058,7 +13064,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13084,7 +13090,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13110,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13136,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13162,7 +13168,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13188,7 +13194,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13214,7 +13220,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13240,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13266,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13292,7 +13298,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13318,7 +13324,7 @@
         <v>0.5189873417721519</v>
       </c>
       <c r="H427" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13344,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13370,7 +13376,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13396,7 +13402,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13422,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13448,7 +13454,7 @@
         <v>0.4683544303797468</v>
       </c>
       <c r="H432" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13474,7 +13480,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13500,7 +13506,7 @@
         <v>0.4810126582278481</v>
       </c>
       <c r="H434" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13526,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13552,7 +13558,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13578,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13604,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13630,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13656,7 +13662,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13682,7 +13688,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13708,7 +13714,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13734,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13760,7 +13766,7 @@
         <v>0.525</v>
       </c>
       <c r="H444" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13786,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13812,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13838,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13864,7 +13870,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H448" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13890,7 +13896,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H449" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13916,7 +13922,7 @@
         <v>0.4880952380952381</v>
       </c>
       <c r="H450" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13942,7 +13948,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H451" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13968,7 +13974,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13994,7 +14000,7 @@
         <v>0.5060240963855421</v>
       </c>
       <c r="H453" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14020,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14046,7 +14052,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14072,7 +14078,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14098,7 +14104,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14124,7 +14130,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14150,7 +14156,7 @@
         <v>0.5</v>
       </c>
       <c r="H459" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14176,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14202,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14228,7 +14234,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14254,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14280,7 +14286,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14306,7 +14312,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14332,7 +14338,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14358,7 +14364,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H467" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14384,7 +14390,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14410,7 +14416,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14436,7 +14442,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14462,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14488,7 +14494,7 @@
         <v>0.5060240963855421</v>
       </c>
       <c r="H472" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14514,7 +14520,7 @@
         <v>0.5</v>
       </c>
       <c r="H473" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14540,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14566,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14592,7 +14598,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H476" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14618,7 +14624,7 @@
         <v>0.5</v>
       </c>
       <c r="H477" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14644,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14670,7 +14676,7 @@
         <v>0.4938271604938271</v>
       </c>
       <c r="H479" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14696,7 +14702,7 @@
         <v>0.5</v>
       </c>
       <c r="H480" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14722,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14748,7 +14754,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14774,7 +14780,7 @@
         <v>0.4936708860759494</v>
       </c>
       <c r="H483" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14800,7 +14806,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14826,7 +14832,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14852,7 +14858,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14878,7 +14884,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14904,7 +14910,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H488" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14930,7 +14936,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14956,7 +14962,7 @@
         <v>0.4823529411764707</v>
       </c>
       <c r="H490" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14982,7 +14988,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15008,7 +15014,7 @@
         <v>0.4880952380952381</v>
       </c>
       <c r="H492" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15034,7 +15040,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15060,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15086,7 +15092,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15112,7 +15118,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15138,7 +15144,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15164,7 +15170,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15190,7 +15196,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15216,7 +15222,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15242,7 +15248,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15268,7 +15274,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15294,7 +15300,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15320,7 +15326,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15346,7 +15352,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15372,7 +15378,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15398,7 +15404,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15424,7 +15430,7 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="H508" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15450,7 +15456,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15476,7 +15482,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H510" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15502,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15528,7 +15534,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15554,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15580,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15606,7 +15612,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15632,7 +15638,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15658,7 +15664,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15684,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15710,7 +15716,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15736,7 +15742,7 @@
         <v>0.5</v>
       </c>
       <c r="H520" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15762,7 +15768,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15788,7 +15794,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15814,7 +15820,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15840,7 +15846,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15866,7 +15872,7 @@
         <v>0.5</v>
       </c>
       <c r="H525" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15892,7 +15898,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15918,7 +15924,7 @@
         <v>1</v>
       </c>
       <c r="H527" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15944,7 +15950,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15970,7 +15976,7 @@
         <v>0.5139</v>
       </c>
       <c r="H529" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15996,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16022,7 +16028,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16048,7 +16054,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16074,7 +16080,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16100,7 +16106,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16126,7 +16132,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16152,7 +16158,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16178,7 +16184,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16204,7 +16210,7 @@
         <v>0.5205</v>
       </c>
       <c r="H538" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16230,7 +16236,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16256,7 +16262,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16282,7 +16288,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16308,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16334,7 +16340,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16360,7 +16366,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16386,7 +16392,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16412,7 +16418,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16438,7 +16444,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16464,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16490,7 +16496,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16516,7 +16522,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16542,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16568,7 +16574,7 @@
         <v>0.5211</v>
       </c>
       <c r="H552" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16594,7 +16600,7 @@
         <v>0.5143</v>
       </c>
       <c r="H553" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16620,7 +16626,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H554" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16646,7 +16652,7 @@
         <v>0.5147</v>
       </c>
       <c r="H555" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16672,7 +16678,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H556" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16698,7 +16704,7 @@
         <v>0.5143</v>
       </c>
       <c r="H557" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16724,7 +16730,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H558" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16750,7 +16756,7 @@
         <v>0.5147</v>
       </c>
       <c r="H559" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16776,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16802,7 +16808,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16812,9 +16818,15 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>0</v>
+      </c>
       <c r="D562">
         <v>0</v>
       </c>
+      <c r="E562">
+        <v>1</v>
+      </c>
       <c r="F562">
         <v>1</v>
       </c>
@@ -16822,7 +16834,53 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+      <c r="C563">
+        <v>1</v>
+      </c>
+      <c r="D563">
+        <v>0</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>1</v>
+      </c>
+      <c r="G563">
+        <v>0</v>
+      </c>
+      <c r="H563" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
         <v>569</v>
+      </c>
+      <c r="D564">
+        <v>0</v>
+      </c>
+      <c r="F564">
+        <v>1</v>
+      </c>
+      <c r="G564">
+        <v>0</v>
+      </c>
+      <c r="H564" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleEOE+VSMO.xlsx
+++ b/firebase_data_from_spyEnsembleEOE+VSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="620">
   <si>
     <t>date</t>
   </si>
@@ -1726,6 +1726,12 @@
     <t>2025-08-27</t>
   </si>
   <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -1865,6 +1871,9 @@
   </si>
   <si>
     <t>51.47</t>
+  </si>
+  <si>
+    <t>50.72</t>
   </si>
 </sst>
 </file>
@@ -2222,7 +2231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2274,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2300,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2326,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2352,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2378,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2404,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2430,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2456,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2482,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2508,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2534,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2560,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2586,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2612,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2638,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2664,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2690,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2716,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2742,7 +2751,7 @@
         <v>0.5</v>
       </c>
       <c r="H20" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2768,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2794,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2820,7 +2829,7 @@
         <v>0.52</v>
       </c>
       <c r="H23" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2846,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2872,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2898,7 +2907,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2924,7 +2933,7 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H27" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2950,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2976,7 +2985,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3002,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3028,7 +3037,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3054,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3080,7 +3089,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H33" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3106,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3132,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3158,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3184,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3210,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3236,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3262,7 +3271,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3288,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3314,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3340,7 +3349,7 @@
         <v>0.54</v>
       </c>
       <c r="H43" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3366,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3392,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3418,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3444,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3470,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3496,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3522,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3548,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3574,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3600,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3626,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3652,7 +3661,7 @@
         <v>0.5396825396825397</v>
       </c>
       <c r="H55" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3678,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3704,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3730,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3756,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3782,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3808,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3834,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3860,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3886,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3912,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3938,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3964,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3990,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4016,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4042,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4068,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4094,7 +4103,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4120,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4146,7 +4155,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4172,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4198,7 +4207,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4224,7 +4233,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H77" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4250,7 +4259,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4276,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4302,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4328,7 +4337,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4354,7 +4363,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4380,7 +4389,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4406,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4432,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4458,7 +4467,7 @@
         <v>0.4935064935064935</v>
       </c>
       <c r="H86" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4484,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4510,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4536,7 +4545,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H89" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4562,7 +4571,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4588,7 +4597,7 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="H91" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4614,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4640,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4666,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4692,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4718,7 +4727,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4744,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4770,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4796,7 +4805,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4822,7 +4831,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4848,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4874,7 +4883,7 @@
         <v>0.5</v>
       </c>
       <c r="H102" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4900,7 +4909,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H103" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4926,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4952,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4978,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5004,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5030,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5056,7 +5065,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H109" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5082,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5108,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5134,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5160,7 +5169,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5186,7 +5195,7 @@
         <v>0.4936708860759494</v>
       </c>
       <c r="H114" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5212,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5238,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5264,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5290,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5316,7 +5325,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H119" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5342,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5368,7 +5377,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5394,7 +5403,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5420,7 +5429,7 @@
         <v>0.4767441860465116</v>
       </c>
       <c r="H123" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5446,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5472,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5498,7 +5507,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5524,7 +5533,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H127" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5550,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5576,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5602,7 +5611,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H130" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5628,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5654,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5680,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5706,7 +5715,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5732,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5758,7 +5767,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5784,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5810,7 +5819,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5836,7 +5845,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5862,7 +5871,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5888,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5914,7 +5923,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5940,7 +5949,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5966,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5992,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6018,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6044,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6070,7 +6079,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6096,7 +6105,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H149" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6122,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6148,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6174,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6200,7 +6209,7 @@
         <v>0.5280898876404494</v>
       </c>
       <c r="H153" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6226,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6252,7 +6261,7 @@
         <v>0.5274725274725275</v>
       </c>
       <c r="H155" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6278,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6304,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6330,7 +6339,7 @@
         <v>0.5280898876404494</v>
       </c>
       <c r="H158" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6356,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6382,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6408,7 +6417,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6434,7 +6443,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6460,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6486,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6512,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6538,7 +6547,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6564,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6590,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6616,7 +6625,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6642,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6668,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6694,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6720,7 +6729,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6746,7 +6755,7 @@
         <v>0.5154639175257733</v>
       </c>
       <c r="H174" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6772,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6798,7 +6807,7 @@
         <v>0.5154639175257733</v>
       </c>
       <c r="H176" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6824,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6850,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6876,7 +6885,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6902,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6928,7 +6937,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6954,7 +6963,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6980,7 +6989,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7006,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7032,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7058,7 +7067,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7084,7 +7093,7 @@
         <v>0.5056179775280899</v>
       </c>
       <c r="H187" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7110,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7136,7 +7145,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7162,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7188,7 +7197,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7214,7 +7223,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7240,7 +7249,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7266,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7292,7 +7301,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7318,7 +7327,7 @@
         <v>1</v>
       </c>
       <c r="H196" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7344,7 +7353,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H197" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7370,7 +7379,7 @@
         <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7396,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7422,7 +7431,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H200" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7448,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7474,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="H202" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7500,7 +7509,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7526,7 +7535,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7552,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7578,7 +7587,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7604,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7630,7 +7639,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H208" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7656,7 +7665,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7682,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7708,7 +7717,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7734,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7760,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7786,7 +7795,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7812,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7838,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7864,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7890,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7916,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7942,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7968,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7994,7 +8003,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8020,7 +8029,7 @@
         <v>0.4941176470588236</v>
       </c>
       <c r="H223" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8046,7 +8055,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8072,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8098,7 +8107,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8124,7 +8133,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8150,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8176,7 +8185,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H229" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8202,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8228,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8254,7 +8263,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8280,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8306,7 +8315,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8332,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8358,7 +8367,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8384,7 +8393,7 @@
         <v>0.5119047619047619</v>
       </c>
       <c r="H237" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8410,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8436,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8462,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8488,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8514,7 +8523,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8540,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8566,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8592,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8618,7 +8627,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8644,7 +8653,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8670,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8696,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8722,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8748,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8774,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8800,7 +8809,7 @@
         <v>0.5164835164835165</v>
       </c>
       <c r="H253" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8826,7 +8835,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8852,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8878,7 +8887,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8904,7 +8913,7 @@
         <v>0.4946236559139785</v>
       </c>
       <c r="H257" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8930,7 +8939,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8956,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8982,7 +8991,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9008,7 +9017,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9034,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9060,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9086,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9112,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9138,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9164,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9190,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9216,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9242,7 +9251,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9268,7 +9277,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9294,7 +9303,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9320,7 +9329,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9346,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9372,7 +9381,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9398,7 +9407,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9424,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9450,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9476,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9502,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9528,7 +9537,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9554,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9580,7 +9589,7 @@
         <v>0.4947368421052632</v>
       </c>
       <c r="H283" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9606,7 +9615,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9632,7 +9641,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9658,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9684,7 +9693,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9710,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9736,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9762,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9788,7 +9797,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9814,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9840,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9866,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9892,7 +9901,7 @@
         <v>0.5157894736842106</v>
       </c>
       <c r="H295" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9918,7 +9927,7 @@
         <v>0.5212765957446809</v>
       </c>
       <c r="H296" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9944,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9970,7 +9979,7 @@
         <v>0.5212765957446809</v>
       </c>
       <c r="H298" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9996,7 +10005,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10022,7 +10031,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10048,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10074,7 +10083,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10100,7 +10109,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10126,7 +10135,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10152,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10178,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10204,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10230,7 +10239,7 @@
         <v>1</v>
       </c>
       <c r="H308" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10256,7 +10265,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10282,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10308,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10334,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10360,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10386,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10412,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10438,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10464,7 +10473,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10490,7 +10499,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10516,7 +10525,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10542,7 +10551,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10568,7 +10577,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10594,7 +10603,7 @@
         <v>0.4819277108433735</v>
       </c>
       <c r="H322" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10620,7 +10629,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10646,7 +10655,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10672,7 +10681,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10698,7 +10707,7 @@
         <v>1</v>
       </c>
       <c r="H326" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10724,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10750,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10776,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10802,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10828,7 +10837,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10854,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10880,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10906,7 +10915,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10932,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10958,7 +10967,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10984,7 +10993,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11010,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11036,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11062,7 +11071,7 @@
         <v>0.5056179775280899</v>
       </c>
       <c r="H340" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11088,7 +11097,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11114,7 +11123,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11140,7 +11149,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H343" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11166,7 +11175,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11192,7 +11201,7 @@
         <v>0.5054945054945055</v>
       </c>
       <c r="H345" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11218,7 +11227,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11244,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11270,7 +11279,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11296,7 +11305,7 @@
         <v>1</v>
       </c>
       <c r="H349" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11322,7 +11331,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11348,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11374,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11400,7 +11409,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11426,7 +11435,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11452,7 +11461,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11478,7 +11487,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11504,7 +11513,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11530,7 +11539,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11556,7 +11565,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11582,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11608,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11634,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11660,7 +11669,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11686,7 +11695,7 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="H364" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11712,7 +11721,7 @@
         <v>0.5057471264367817</v>
       </c>
       <c r="H365" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11738,7 +11747,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11764,7 +11773,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11790,7 +11799,7 @@
         <v>0.4942528735632184</v>
       </c>
       <c r="H368" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11816,7 +11825,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11842,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11868,7 +11877,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11894,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11920,7 +11929,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11946,7 +11955,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11972,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11998,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12024,7 +12033,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H377" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12050,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12076,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12102,7 +12111,7 @@
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12128,7 +12137,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12154,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12180,7 +12189,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12206,7 +12215,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12232,7 +12241,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12258,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12284,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12310,7 +12319,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12336,7 +12345,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12362,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12388,7 +12397,7 @@
         <v>0.4651162790697674</v>
       </c>
       <c r="H391" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12414,7 +12423,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12440,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12466,7 +12475,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12492,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12518,7 +12527,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12544,7 +12553,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12570,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12596,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12622,7 +12631,7 @@
         <v>0.5256410256410257</v>
       </c>
       <c r="H400" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12648,7 +12657,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H401" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12674,7 +12683,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12700,7 +12709,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12726,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12752,7 +12761,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12778,7 +12787,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12804,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12830,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12856,7 +12865,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12882,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12908,7 +12917,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12934,7 +12943,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12960,7 +12969,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H413" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12986,7 +12995,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13012,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13038,7 +13047,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13064,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13090,7 +13099,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13116,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13142,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13168,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13194,7 +13203,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13220,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13246,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13272,7 +13281,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13298,7 +13307,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13324,7 +13333,7 @@
         <v>0.5189873417721519</v>
       </c>
       <c r="H427" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13350,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13376,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13402,7 +13411,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13428,7 +13437,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13454,7 +13463,7 @@
         <v>0.4683544303797468</v>
       </c>
       <c r="H432" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13480,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13506,7 +13515,7 @@
         <v>0.4810126582278481</v>
       </c>
       <c r="H434" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13532,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13558,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13584,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13610,7 +13619,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13636,7 +13645,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13662,7 +13671,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13688,7 +13697,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13714,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13740,7 +13749,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13766,7 +13775,7 @@
         <v>0.525</v>
       </c>
       <c r="H444" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13792,7 +13801,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13818,7 +13827,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13844,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13870,7 +13879,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H448" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13896,7 +13905,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H449" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13922,7 +13931,7 @@
         <v>0.4880952380952381</v>
       </c>
       <c r="H450" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13948,7 +13957,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H451" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13974,7 +13983,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14000,7 +14009,7 @@
         <v>0.5060240963855421</v>
       </c>
       <c r="H453" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14026,7 +14035,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14052,7 +14061,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14078,7 +14087,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14104,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14130,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14156,7 +14165,7 @@
         <v>0.5</v>
       </c>
       <c r="H459" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14182,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14208,7 +14217,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14234,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14260,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14286,7 +14295,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14312,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14338,7 +14347,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14364,7 +14373,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H467" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14390,7 +14399,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14416,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14442,7 +14451,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14468,7 +14477,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14494,7 +14503,7 @@
         <v>0.5060240963855421</v>
       </c>
       <c r="H472" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14520,7 +14529,7 @@
         <v>0.5</v>
       </c>
       <c r="H473" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14546,7 +14555,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14572,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14598,7 +14607,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H476" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14624,7 +14633,7 @@
         <v>0.5</v>
       </c>
       <c r="H477" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14650,7 +14659,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14676,7 +14685,7 @@
         <v>0.4938271604938271</v>
       </c>
       <c r="H479" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14702,7 +14711,7 @@
         <v>0.5</v>
       </c>
       <c r="H480" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14728,7 +14737,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14754,7 +14763,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14780,7 +14789,7 @@
         <v>0.4936708860759494</v>
       </c>
       <c r="H483" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14806,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14832,7 +14841,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14858,7 +14867,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14884,7 +14893,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14910,7 +14919,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H488" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14936,7 +14945,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14962,7 +14971,7 @@
         <v>0.4823529411764707</v>
       </c>
       <c r="H490" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14988,7 +14997,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15014,7 +15023,7 @@
         <v>0.4880952380952381</v>
       </c>
       <c r="H492" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15040,7 +15049,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15066,7 +15075,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15092,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15118,7 +15127,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15144,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15170,7 +15179,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15196,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15222,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15248,7 +15257,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15274,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15300,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15326,7 +15335,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15352,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15378,7 +15387,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15404,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15430,7 +15439,7 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="H508" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15456,7 +15465,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15482,7 +15491,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H510" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15508,7 +15517,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15534,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15560,7 +15569,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15586,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15612,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15638,7 +15647,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15664,7 +15673,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15690,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15716,7 +15725,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15742,7 +15751,7 @@
         <v>0.5</v>
       </c>
       <c r="H520" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15768,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15794,7 +15803,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15820,7 +15829,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15846,7 +15855,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15872,7 +15881,7 @@
         <v>0.5</v>
       </c>
       <c r="H525" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15898,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15924,7 +15933,7 @@
         <v>1</v>
       </c>
       <c r="H527" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15950,7 +15959,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15976,7 +15985,7 @@
         <v>0.5139</v>
       </c>
       <c r="H529" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16002,7 +16011,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16028,7 +16037,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16054,7 +16063,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16080,7 +16089,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16106,7 +16115,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16132,7 +16141,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16158,7 +16167,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16184,7 +16193,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16210,7 +16219,7 @@
         <v>0.5205</v>
       </c>
       <c r="H538" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16236,7 +16245,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16262,7 +16271,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16288,7 +16297,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16314,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16340,7 +16349,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16366,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16392,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16418,7 +16427,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16444,7 +16453,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16470,7 +16479,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16496,7 +16505,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16522,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16548,7 +16557,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16574,7 +16583,7 @@
         <v>0.5211</v>
       </c>
       <c r="H552" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16600,7 +16609,7 @@
         <v>0.5143</v>
       </c>
       <c r="H553" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16626,7 +16635,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H554" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16652,7 +16661,7 @@
         <v>0.5147</v>
       </c>
       <c r="H555" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16678,7 +16687,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H556" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16704,7 +16713,7 @@
         <v>0.5143</v>
       </c>
       <c r="H557" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16730,7 +16739,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H558" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16756,7 +16765,7 @@
         <v>0.5147</v>
       </c>
       <c r="H559" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16782,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16808,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16834,7 +16843,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16860,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16870,9 +16879,15 @@
       <c r="B564" t="s">
         <v>569</v>
       </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
       <c r="D564">
         <v>0</v>
       </c>
+      <c r="E564">
+        <v>0</v>
+      </c>
       <c r="F564">
         <v>1</v>
       </c>
@@ -16880,7 +16895,53 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
+        <v>570</v>
+      </c>
+      <c r="C565">
+        <v>1</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="E565">
+        <v>1</v>
+      </c>
+      <c r="F565">
+        <v>0.4928</v>
+      </c>
+      <c r="G565">
+        <v>0.5072</v>
+      </c>
+      <c r="H565" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1">
+        <v>564</v>
+      </c>
+      <c r="B566" t="s">
         <v>571</v>
+      </c>
+      <c r="D566">
+        <v>1</v>
+      </c>
+      <c r="F566">
+        <v>0</v>
+      </c>
+      <c r="G566">
+        <v>1</v>
+      </c>
+      <c r="H566" t="s">
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleEOE+VSMO.xlsx
+++ b/firebase_data_from_spyEnsembleEOE+VSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="626">
   <si>
     <t>date</t>
   </si>
@@ -1730,6 +1730,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2231,7 +2249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H566"/>
+  <dimension ref="A1:H572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2283,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2309,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2335,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2361,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2387,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2413,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2439,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2465,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2491,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2517,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2543,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2569,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2595,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2621,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2647,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2673,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2699,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2725,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2751,7 +2769,7 @@
         <v>0.5</v>
       </c>
       <c r="H20" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2777,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2803,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2829,7 +2847,7 @@
         <v>0.52</v>
       </c>
       <c r="H23" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2855,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2881,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2907,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2933,7 +2951,7 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H27" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2959,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2985,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3011,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3037,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3063,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3089,7 +3107,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H33" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3115,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3141,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3167,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3193,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3219,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3245,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3271,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3297,7 +3315,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3323,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3349,7 +3367,7 @@
         <v>0.54</v>
       </c>
       <c r="H43" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3375,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3401,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3427,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3453,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3479,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3505,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3531,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3557,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3583,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3609,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3635,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3661,7 +3679,7 @@
         <v>0.5396825396825397</v>
       </c>
       <c r="H55" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3687,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3713,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3739,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3765,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3791,7 +3809,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3817,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3843,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3869,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3895,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3921,7 +3939,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3947,7 +3965,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3973,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3999,7 +4017,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4025,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4051,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4077,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4103,7 +4121,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4129,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4155,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4181,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4207,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4233,7 +4251,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H77" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4259,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4285,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4311,7 +4329,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4337,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4363,7 +4381,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4389,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4415,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4441,7 +4459,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4467,7 +4485,7 @@
         <v>0.4935064935064935</v>
       </c>
       <c r="H86" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4493,7 +4511,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4519,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4545,7 +4563,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H89" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4571,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4597,7 +4615,7 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="H91" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4623,7 +4641,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4649,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4675,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4701,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4727,7 +4745,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4753,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4779,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4805,7 +4823,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4831,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4857,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4883,7 +4901,7 @@
         <v>0.5</v>
       </c>
       <c r="H102" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4909,7 +4927,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H103" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4935,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4961,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4987,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5013,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5039,7 +5057,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5065,7 +5083,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H109" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5091,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5117,7 +5135,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5143,7 +5161,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5169,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5195,7 +5213,7 @@
         <v>0.4936708860759494</v>
       </c>
       <c r="H114" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5221,7 +5239,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5247,7 +5265,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5273,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5299,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5325,7 +5343,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H119" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5351,7 +5369,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5377,7 +5395,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5403,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5429,7 +5447,7 @@
         <v>0.4767441860465116</v>
       </c>
       <c r="H123" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5455,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5481,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5507,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5533,7 +5551,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H127" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5559,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5585,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5611,7 +5629,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H130" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5637,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5663,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5689,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5715,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5741,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5767,7 +5785,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5793,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5819,7 +5837,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5845,7 +5863,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5871,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5897,7 +5915,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5923,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5949,7 +5967,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5975,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6001,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6027,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6053,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6079,7 +6097,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6105,7 +6123,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H149" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6131,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6157,7 +6175,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6183,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6209,7 +6227,7 @@
         <v>0.5280898876404494</v>
       </c>
       <c r="H153" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6235,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6261,7 +6279,7 @@
         <v>0.5274725274725275</v>
       </c>
       <c r="H155" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6287,7 +6305,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6313,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6339,7 +6357,7 @@
         <v>0.5280898876404494</v>
       </c>
       <c r="H158" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6365,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6391,7 +6409,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6417,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6443,7 +6461,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6469,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6495,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6521,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6547,7 +6565,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6573,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6599,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6625,7 +6643,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6651,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6677,7 +6695,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6703,7 +6721,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6729,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6755,7 +6773,7 @@
         <v>0.5154639175257733</v>
       </c>
       <c r="H174" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6781,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6807,7 +6825,7 @@
         <v>0.5154639175257733</v>
       </c>
       <c r="H176" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6833,7 +6851,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6859,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6885,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6911,7 +6929,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6937,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6963,7 +6981,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6989,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7015,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7041,7 +7059,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7067,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7093,7 +7111,7 @@
         <v>0.5056179775280899</v>
       </c>
       <c r="H187" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7119,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7145,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7171,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7197,7 +7215,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7223,7 +7241,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7249,7 +7267,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7275,7 +7293,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7301,7 +7319,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7327,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="H196" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7353,7 +7371,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H197" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7379,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7405,7 +7423,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7431,7 +7449,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H200" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7457,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7483,7 +7501,7 @@
         <v>1</v>
       </c>
       <c r="H202" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7509,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7535,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7561,7 +7579,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7587,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7613,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7639,7 +7657,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H208" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7665,7 +7683,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7691,7 +7709,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7717,7 +7735,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7743,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7769,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7795,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7821,7 +7839,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7847,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7873,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7899,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7925,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7951,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7977,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8003,7 +8021,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8029,7 +8047,7 @@
         <v>0.4941176470588236</v>
       </c>
       <c r="H223" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8055,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8081,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8107,7 +8125,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8133,7 +8151,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8159,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8185,7 +8203,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H229" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8211,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8237,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8263,7 +8281,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8289,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8315,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8341,7 +8359,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8367,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8393,7 +8411,7 @@
         <v>0.5119047619047619</v>
       </c>
       <c r="H237" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8419,7 +8437,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8445,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8471,7 +8489,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8497,7 +8515,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8523,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8549,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8575,7 +8593,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8601,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8627,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8653,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8679,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8705,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8731,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8757,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8783,7 +8801,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8809,7 +8827,7 @@
         <v>0.5164835164835165</v>
       </c>
       <c r="H253" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8835,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8861,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8887,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8913,7 +8931,7 @@
         <v>0.4946236559139785</v>
       </c>
       <c r="H257" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8939,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8965,7 +8983,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8991,7 +9009,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9017,7 +9035,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9043,7 +9061,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9069,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9095,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9121,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9147,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9173,7 +9191,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9199,7 +9217,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9225,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9251,7 +9269,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9277,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9303,7 +9321,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9329,7 +9347,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9355,7 +9373,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9381,7 +9399,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9407,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9433,7 +9451,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9459,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9485,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9511,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9537,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9563,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9589,7 +9607,7 @@
         <v>0.4947368421052632</v>
       </c>
       <c r="H283" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9615,7 +9633,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9641,7 +9659,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9667,7 +9685,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9693,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9719,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9745,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9771,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9797,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9823,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9849,7 +9867,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9875,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9901,7 +9919,7 @@
         <v>0.5157894736842106</v>
       </c>
       <c r="H295" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9927,7 +9945,7 @@
         <v>0.5212765957446809</v>
       </c>
       <c r="H296" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9953,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9979,7 +9997,7 @@
         <v>0.5212765957446809</v>
       </c>
       <c r="H298" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10005,7 +10023,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10031,7 +10049,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10057,7 +10075,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10083,7 +10101,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10109,7 +10127,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10135,7 +10153,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10161,7 +10179,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10187,7 +10205,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10213,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10239,7 +10257,7 @@
         <v>1</v>
       </c>
       <c r="H308" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10265,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10291,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10317,7 +10335,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10343,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10369,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10395,7 +10413,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10421,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10447,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10473,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10499,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10525,7 +10543,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10551,7 +10569,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10577,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10603,7 +10621,7 @@
         <v>0.4819277108433735</v>
       </c>
       <c r="H322" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10629,7 +10647,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10655,7 +10673,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10681,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10707,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="H326" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10733,7 +10751,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10759,7 +10777,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10785,7 +10803,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10811,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10837,7 +10855,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10863,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10889,7 +10907,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10915,7 +10933,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10941,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10967,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10993,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11019,7 +11037,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11045,7 +11063,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11071,7 +11089,7 @@
         <v>0.5056179775280899</v>
       </c>
       <c r="H340" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11097,7 +11115,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11123,7 +11141,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11149,7 +11167,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H343" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11175,7 +11193,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11201,7 +11219,7 @@
         <v>0.5054945054945055</v>
       </c>
       <c r="H345" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11227,7 +11245,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11253,7 +11271,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11279,7 +11297,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11305,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="H349" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11331,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11357,7 +11375,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11383,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11409,7 +11427,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11435,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11461,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11487,7 +11505,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11513,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11539,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11565,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11591,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11617,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11643,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11669,7 +11687,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11695,7 +11713,7 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="H364" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11721,7 +11739,7 @@
         <v>0.5057471264367817</v>
       </c>
       <c r="H365" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11747,7 +11765,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11773,7 +11791,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11799,7 +11817,7 @@
         <v>0.4942528735632184</v>
       </c>
       <c r="H368" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11825,7 +11843,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11851,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11877,7 +11895,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11903,7 +11921,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11929,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11955,7 +11973,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11981,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12007,7 +12025,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12033,7 +12051,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H377" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12059,7 +12077,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12085,7 +12103,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12111,7 +12129,7 @@
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12137,7 +12155,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12163,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12189,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12215,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12241,7 +12259,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12267,7 +12285,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12293,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12319,7 +12337,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12345,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12371,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12397,7 +12415,7 @@
         <v>0.4651162790697674</v>
       </c>
       <c r="H391" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12423,7 +12441,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12449,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12475,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12501,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12527,7 +12545,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12553,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12579,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12605,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12631,7 +12649,7 @@
         <v>0.5256410256410257</v>
       </c>
       <c r="H400" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12657,7 +12675,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H401" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12683,7 +12701,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12709,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12735,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12761,7 +12779,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12787,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12813,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12839,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12865,7 +12883,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12891,7 +12909,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12917,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12943,7 +12961,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12969,7 +12987,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H413" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12995,7 +13013,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13021,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13047,7 +13065,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13073,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13099,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13125,7 +13143,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13151,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13177,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13203,7 +13221,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13229,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13255,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13281,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13307,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13333,7 +13351,7 @@
         <v>0.5189873417721519</v>
       </c>
       <c r="H427" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13359,7 +13377,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13385,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13411,7 +13429,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13437,7 +13455,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13463,7 +13481,7 @@
         <v>0.4683544303797468</v>
       </c>
       <c r="H432" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13489,7 +13507,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13515,7 +13533,7 @@
         <v>0.4810126582278481</v>
       </c>
       <c r="H434" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13541,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13567,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13593,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13619,7 +13637,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13645,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13671,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13697,7 +13715,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13723,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13749,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13775,7 +13793,7 @@
         <v>0.525</v>
       </c>
       <c r="H444" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13801,7 +13819,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13827,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13853,7 +13871,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13879,7 +13897,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H448" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13905,7 +13923,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H449" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13931,7 +13949,7 @@
         <v>0.4880952380952381</v>
       </c>
       <c r="H450" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13957,7 +13975,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H451" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13983,7 +14001,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14009,7 +14027,7 @@
         <v>0.5060240963855421</v>
       </c>
       <c r="H453" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14035,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14061,7 +14079,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14087,7 +14105,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14113,7 +14131,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14139,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14165,7 +14183,7 @@
         <v>0.5</v>
       </c>
       <c r="H459" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14191,7 +14209,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14217,7 +14235,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14243,7 +14261,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14269,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14295,7 +14313,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14321,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14347,7 +14365,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14373,7 +14391,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H467" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14399,7 +14417,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14425,7 +14443,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14451,7 +14469,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14477,7 +14495,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14503,7 +14521,7 @@
         <v>0.5060240963855421</v>
       </c>
       <c r="H472" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14529,7 +14547,7 @@
         <v>0.5</v>
       </c>
       <c r="H473" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14555,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14581,7 +14599,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14607,7 +14625,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H476" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14633,7 +14651,7 @@
         <v>0.5</v>
       </c>
       <c r="H477" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14659,7 +14677,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14685,7 +14703,7 @@
         <v>0.4938271604938271</v>
       </c>
       <c r="H479" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14711,7 +14729,7 @@
         <v>0.5</v>
       </c>
       <c r="H480" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14737,7 +14755,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14763,7 +14781,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14789,7 +14807,7 @@
         <v>0.4936708860759494</v>
       </c>
       <c r="H483" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14815,7 +14833,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14841,7 +14859,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14867,7 +14885,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14893,7 +14911,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14919,7 +14937,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H488" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14945,7 +14963,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14971,7 +14989,7 @@
         <v>0.4823529411764707</v>
       </c>
       <c r="H490" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14997,7 +15015,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15023,7 +15041,7 @@
         <v>0.4880952380952381</v>
       </c>
       <c r="H492" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15049,7 +15067,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15075,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15101,7 +15119,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15127,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15153,7 +15171,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15179,7 +15197,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15205,7 +15223,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15231,7 +15249,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15257,7 +15275,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15283,7 +15301,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15309,7 +15327,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15335,7 +15353,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15361,7 +15379,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15387,7 +15405,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15413,7 +15431,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15439,7 +15457,7 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="H508" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15465,7 +15483,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15491,7 +15509,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H510" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15517,7 +15535,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15543,7 +15561,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15569,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15595,7 +15613,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15621,7 +15639,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15647,7 +15665,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15673,7 +15691,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15699,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15725,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15751,7 +15769,7 @@
         <v>0.5</v>
       </c>
       <c r="H520" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15777,7 +15795,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15803,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15829,7 +15847,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15855,7 +15873,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15881,7 +15899,7 @@
         <v>0.5</v>
       </c>
       <c r="H525" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15907,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15933,7 +15951,7 @@
         <v>1</v>
       </c>
       <c r="H527" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15959,7 +15977,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15985,7 +16003,7 @@
         <v>0.5139</v>
       </c>
       <c r="H529" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16011,7 +16029,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16037,7 +16055,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16063,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16089,7 +16107,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16115,7 +16133,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16141,7 +16159,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16167,7 +16185,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16193,7 +16211,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16219,7 +16237,7 @@
         <v>0.5205</v>
       </c>
       <c r="H538" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16245,7 +16263,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16271,7 +16289,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16297,7 +16315,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16323,7 +16341,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16349,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16375,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16401,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16427,7 +16445,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16453,7 +16471,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16479,7 +16497,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16505,7 +16523,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16531,7 +16549,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16557,7 +16575,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16583,7 +16601,7 @@
         <v>0.5211</v>
       </c>
       <c r="H552" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16609,7 +16627,7 @@
         <v>0.5143</v>
       </c>
       <c r="H553" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16635,7 +16653,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H554" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16661,7 +16679,7 @@
         <v>0.5147</v>
       </c>
       <c r="H555" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16687,7 +16705,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H556" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16713,7 +16731,7 @@
         <v>0.5143</v>
       </c>
       <c r="H557" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16739,7 +16757,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H558" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16765,7 +16783,7 @@
         <v>0.5147</v>
       </c>
       <c r="H559" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16791,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16817,7 +16835,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16843,7 +16861,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16869,7 +16887,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16895,7 +16913,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16921,7 +16939,7 @@
         <v>0.5072</v>
       </c>
       <c r="H565" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16931,9 +16949,15 @@
       <c r="B566" t="s">
         <v>571</v>
       </c>
+      <c r="C566">
+        <v>0</v>
+      </c>
       <c r="D566">
         <v>1</v>
       </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
       <c r="F566">
         <v>0</v>
       </c>
@@ -16941,7 +16965,157 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1">
+        <v>565</v>
+      </c>
+      <c r="B567" t="s">
+        <v>572</v>
+      </c>
+      <c r="C567">
+        <v>1</v>
+      </c>
+      <c r="D567">
+        <v>1</v>
+      </c>
+      <c r="E567">
+        <v>1</v>
+      </c>
+      <c r="F567">
+        <v>0</v>
+      </c>
+      <c r="G567">
+        <v>1</v>
+      </c>
+      <c r="H567" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1">
+        <v>566</v>
+      </c>
+      <c r="B568" t="s">
         <v>573</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568">
+        <v>1</v>
+      </c>
+      <c r="E568">
+        <v>1</v>
+      </c>
+      <c r="F568">
+        <v>0</v>
+      </c>
+      <c r="G568">
+        <v>1</v>
+      </c>
+      <c r="H568" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8">
+      <c r="A569" s="1">
+        <v>567</v>
+      </c>
+      <c r="B569" t="s">
+        <v>574</v>
+      </c>
+      <c r="C569">
+        <v>1</v>
+      </c>
+      <c r="D569">
+        <v>1</v>
+      </c>
+      <c r="E569">
+        <v>1</v>
+      </c>
+      <c r="F569">
+        <v>0</v>
+      </c>
+      <c r="G569">
+        <v>1</v>
+      </c>
+      <c r="H569" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" s="1">
+        <v>568</v>
+      </c>
+      <c r="B570" t="s">
+        <v>575</v>
+      </c>
+      <c r="C570">
+        <v>0</v>
+      </c>
+      <c r="D570">
+        <v>1</v>
+      </c>
+      <c r="E570">
+        <v>0</v>
+      </c>
+      <c r="F570">
+        <v>0</v>
+      </c>
+      <c r="G570">
+        <v>1</v>
+      </c>
+      <c r="H570" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="A571" s="1">
+        <v>569</v>
+      </c>
+      <c r="B571" t="s">
+        <v>576</v>
+      </c>
+      <c r="C571">
+        <v>1</v>
+      </c>
+      <c r="D571">
+        <v>1</v>
+      </c>
+      <c r="E571">
+        <v>1</v>
+      </c>
+      <c r="F571">
+        <v>0</v>
+      </c>
+      <c r="G571">
+        <v>1</v>
+      </c>
+      <c r="H571" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8">
+      <c r="A572" s="1">
+        <v>570</v>
+      </c>
+      <c r="B572" t="s">
+        <v>577</v>
+      </c>
+      <c r="D572">
+        <v>1</v>
+      </c>
+      <c r="F572">
+        <v>0</v>
+      </c>
+      <c r="G572">
+        <v>1</v>
+      </c>
+      <c r="H572" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyEnsembleEOE+VSMO.xlsx
+++ b/firebase_data_from_spyEnsembleEOE+VSMO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="628">
   <si>
     <t>date</t>
   </si>
@@ -1748,6 +1748,12 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>0.00</t>
@@ -2249,7 +2255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2301,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2327,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2353,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2379,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2405,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2431,7 +2437,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2457,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2483,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2509,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2535,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2561,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2587,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2613,7 +2619,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2639,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2665,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2691,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2717,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2743,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2769,7 +2775,7 @@
         <v>0.5</v>
       </c>
       <c r="H20" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2795,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2821,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2847,7 +2853,7 @@
         <v>0.52</v>
       </c>
       <c r="H23" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2873,7 +2879,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2899,7 +2905,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2925,7 +2931,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2951,7 +2957,7 @@
         <v>0.4516129032258064</v>
       </c>
       <c r="H27" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2977,7 +2983,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3003,7 +3009,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3029,7 +3035,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3055,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3081,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3107,7 +3113,7 @@
         <v>0.4358974358974358</v>
       </c>
       <c r="H33" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3133,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3159,7 +3165,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3185,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3211,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3237,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3263,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3289,7 +3295,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3315,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3341,7 +3347,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3367,7 +3373,7 @@
         <v>0.54</v>
       </c>
       <c r="H43" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3393,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3419,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3445,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3471,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3497,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3523,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3549,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3575,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3601,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3627,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3653,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3679,7 +3685,7 @@
         <v>0.5396825396825397</v>
       </c>
       <c r="H55" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3705,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3731,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3757,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3783,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3809,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3835,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3861,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3887,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3913,7 +3919,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3939,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3965,7 +3971,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3991,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4017,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4043,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4069,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4095,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4121,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4147,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4173,7 +4179,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4199,7 +4205,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4225,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4251,7 +4257,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H77" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4277,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4303,7 +4309,7 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4329,7 +4335,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4355,7 +4361,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4381,7 +4387,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4407,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4433,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4459,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4485,7 +4491,7 @@
         <v>0.4935064935064935</v>
       </c>
       <c r="H86" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4511,7 +4517,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4537,7 +4543,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4563,7 +4569,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H89" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4589,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4615,7 +4621,7 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="H91" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4641,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4667,7 +4673,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4693,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4719,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4745,7 +4751,7 @@
         <v>0.5</v>
       </c>
       <c r="H96" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4771,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4797,7 +4803,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4823,7 +4829,7 @@
         <v>0.5</v>
       </c>
       <c r="H99" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4849,7 +4855,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4875,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4901,7 +4907,7 @@
         <v>0.5</v>
       </c>
       <c r="H102" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4927,7 +4933,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H103" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4953,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4979,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5005,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5031,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5057,7 +5063,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5083,7 +5089,7 @@
         <v>0.5064935064935066</v>
       </c>
       <c r="H109" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5109,7 +5115,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5135,7 +5141,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5161,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5187,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="H113" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5213,7 +5219,7 @@
         <v>0.4936708860759494</v>
       </c>
       <c r="H114" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5239,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5265,7 +5271,7 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5291,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5317,7 +5323,7 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5343,7 +5349,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H119" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5369,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5395,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5421,7 +5427,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5447,7 +5453,7 @@
         <v>0.4767441860465116</v>
       </c>
       <c r="H123" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5473,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5499,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5525,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5551,7 +5557,7 @@
         <v>0.4772727272727273</v>
       </c>
       <c r="H127" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5577,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5603,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5629,7 +5635,7 @@
         <v>0.5227272727272727</v>
       </c>
       <c r="H130" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5655,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5681,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5707,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5733,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5759,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5785,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5811,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5837,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5863,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5889,7 +5895,7 @@
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5915,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5941,7 +5947,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5967,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5993,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6019,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6045,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6071,7 +6077,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6097,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6123,7 +6129,7 @@
         <v>0.5333333333333333</v>
       </c>
       <c r="H149" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6149,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6175,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6201,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6227,7 +6233,7 @@
         <v>0.5280898876404494</v>
       </c>
       <c r="H153" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6253,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6279,7 +6285,7 @@
         <v>0.5274725274725275</v>
       </c>
       <c r="H155" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6305,7 +6311,7 @@
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6331,7 +6337,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6357,7 +6363,7 @@
         <v>0.5280898876404494</v>
       </c>
       <c r="H158" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6383,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6409,7 +6415,7 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6435,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6461,7 +6467,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6487,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6513,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6539,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6565,7 +6571,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6591,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6617,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6643,7 +6649,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6669,7 +6675,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6695,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="H171" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6721,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="H172" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6747,7 +6753,7 @@
         <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6773,7 +6779,7 @@
         <v>0.5154639175257733</v>
       </c>
       <c r="H174" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6799,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6825,7 +6831,7 @@
         <v>0.5154639175257733</v>
       </c>
       <c r="H176" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6851,7 +6857,7 @@
         <v>1</v>
       </c>
       <c r="H177" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6877,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="H178" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6903,7 +6909,7 @@
         <v>1</v>
       </c>
       <c r="H179" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6929,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="H180" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6955,7 +6961,7 @@
         <v>1</v>
       </c>
       <c r="H181" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6981,7 +6987,7 @@
         <v>1</v>
       </c>
       <c r="H182" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7007,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="H183" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7033,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7059,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="H185" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7085,7 +7091,7 @@
         <v>1</v>
       </c>
       <c r="H186" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7111,7 +7117,7 @@
         <v>0.5056179775280899</v>
       </c>
       <c r="H187" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7137,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7163,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7189,7 +7195,7 @@
         <v>1</v>
       </c>
       <c r="H190" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7215,7 +7221,7 @@
         <v>1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7241,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="H192" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7267,7 +7273,7 @@
         <v>1</v>
       </c>
       <c r="H193" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7293,7 +7299,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7319,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7345,7 +7351,7 @@
         <v>1</v>
       </c>
       <c r="H196" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7371,7 +7377,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H197" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7397,7 +7403,7 @@
         <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7423,7 +7429,7 @@
         <v>1</v>
       </c>
       <c r="H199" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7449,7 +7455,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H200" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7475,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7501,7 +7507,7 @@
         <v>1</v>
       </c>
       <c r="H202" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7527,7 +7533,7 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7553,7 +7559,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7579,7 +7585,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7605,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7631,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7657,7 +7663,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H208" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7683,7 +7689,7 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7709,7 +7715,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7735,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7761,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7787,7 +7793,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7813,7 +7819,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7839,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7865,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7891,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7917,7 +7923,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7943,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7969,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7995,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8021,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8047,7 +8053,7 @@
         <v>0.4941176470588236</v>
       </c>
       <c r="H223" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8073,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8099,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8125,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8151,7 +8157,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8177,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="H228" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8203,7 +8209,7 @@
         <v>0.5058823529411764</v>
       </c>
       <c r="H229" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8229,7 +8235,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8255,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8281,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8307,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8333,7 +8339,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8359,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8385,7 +8391,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8411,7 +8417,7 @@
         <v>0.5119047619047619</v>
       </c>
       <c r="H237" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8437,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="H238" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8463,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8489,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8515,7 +8521,7 @@
         <v>0</v>
       </c>
       <c r="H241" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8541,7 +8547,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8567,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8593,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8619,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8645,7 +8651,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8671,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8697,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8723,7 +8729,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8749,7 +8755,7 @@
         <v>1</v>
       </c>
       <c r="H250" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8775,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="H251" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8801,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8827,7 +8833,7 @@
         <v>0.5164835164835165</v>
       </c>
       <c r="H253" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8853,7 +8859,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8879,7 +8885,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8905,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="H256" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8931,7 +8937,7 @@
         <v>0.4946236559139785</v>
       </c>
       <c r="H257" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8957,7 +8963,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8983,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9009,7 +9015,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9035,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9061,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9087,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9113,7 +9119,7 @@
         <v>0</v>
       </c>
       <c r="H264" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9139,7 +9145,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9165,7 +9171,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9191,7 +9197,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9217,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9243,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="H269" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9269,7 +9275,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9295,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9321,7 +9327,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9347,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9373,7 +9379,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9399,7 +9405,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9425,7 +9431,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9451,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="H277" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9477,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="H278" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9503,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="H279" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9529,7 +9535,7 @@
         <v>0</v>
       </c>
       <c r="H280" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9555,7 +9561,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9581,7 +9587,7 @@
         <v>0</v>
       </c>
       <c r="H282" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9607,7 +9613,7 @@
         <v>0.4947368421052632</v>
       </c>
       <c r="H283" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9633,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9659,7 +9665,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9685,7 +9691,7 @@
         <v>0</v>
       </c>
       <c r="H286" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9711,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9737,7 +9743,7 @@
         <v>0</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9763,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9789,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="H290" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9815,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="H291" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9841,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="H292" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9867,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9893,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="H294" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9919,7 +9925,7 @@
         <v>0.5157894736842106</v>
       </c>
       <c r="H295" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9945,7 +9951,7 @@
         <v>0.5212765957446809</v>
       </c>
       <c r="H296" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9971,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="H297" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9997,7 +10003,7 @@
         <v>0.5212765957446809</v>
       </c>
       <c r="H298" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10023,7 +10029,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10049,7 +10055,7 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10075,7 +10081,7 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10101,7 +10107,7 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10127,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10153,7 +10159,7 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10179,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10205,7 +10211,7 @@
         <v>1</v>
       </c>
       <c r="H306" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10231,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10257,7 +10263,7 @@
         <v>1</v>
       </c>
       <c r="H308" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10283,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="H309" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10309,7 +10315,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10335,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10361,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10387,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="H313" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10413,7 +10419,7 @@
         <v>0</v>
       </c>
       <c r="H314" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10439,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="H315" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10465,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="H316" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10491,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10517,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10543,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="H319" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10569,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="H320" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10595,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="H321" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10621,7 +10627,7 @@
         <v>0.4819277108433735</v>
       </c>
       <c r="H322" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10647,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="H323" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10673,7 +10679,7 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10699,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10725,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="H326" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10751,7 +10757,7 @@
         <v>1</v>
       </c>
       <c r="H327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10777,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="H328" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10803,7 +10809,7 @@
         <v>0</v>
       </c>
       <c r="H329" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10829,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="H330" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10855,7 +10861,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10881,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10907,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10933,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="H334" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10959,7 +10965,7 @@
         <v>0</v>
       </c>
       <c r="H335" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10985,7 +10991,7 @@
         <v>1</v>
       </c>
       <c r="H336" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11011,7 +11017,7 @@
         <v>0</v>
       </c>
       <c r="H337" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11037,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="H338" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11063,7 +11069,7 @@
         <v>1</v>
       </c>
       <c r="H339" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11089,7 +11095,7 @@
         <v>0.5056179775280899</v>
       </c>
       <c r="H340" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11115,7 +11121,7 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11141,7 +11147,7 @@
         <v>1</v>
       </c>
       <c r="H342" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11167,7 +11173,7 @@
         <v>0.4888888888888889</v>
       </c>
       <c r="H343" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11193,7 +11199,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11219,7 +11225,7 @@
         <v>0.5054945054945055</v>
       </c>
       <c r="H345" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11245,7 +11251,7 @@
         <v>0</v>
       </c>
       <c r="H346" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11271,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11297,7 +11303,7 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11323,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="H349" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11349,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="H350" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11375,7 +11381,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11401,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="H352" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11427,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="H353" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11453,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11479,7 +11485,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11505,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11531,7 +11537,7 @@
         <v>0</v>
       </c>
       <c r="H357" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11557,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="H358" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11583,7 +11589,7 @@
         <v>0</v>
       </c>
       <c r="H359" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11609,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="H360" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11635,7 +11641,7 @@
         <v>0</v>
       </c>
       <c r="H361" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11661,7 +11667,7 @@
         <v>0</v>
       </c>
       <c r="H362" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11687,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11713,7 +11719,7 @@
         <v>0.4886363636363636</v>
       </c>
       <c r="H364" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11739,7 +11745,7 @@
         <v>0.5057471264367817</v>
       </c>
       <c r="H365" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11765,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11791,7 +11797,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11817,7 +11823,7 @@
         <v>0.4942528735632184</v>
       </c>
       <c r="H368" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11843,7 +11849,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11869,7 +11875,7 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11895,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11921,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11947,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="H373" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11973,7 +11979,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11999,7 +12005,7 @@
         <v>0</v>
       </c>
       <c r="H375" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12025,7 +12031,7 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12051,7 +12057,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H377" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12077,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="H378" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12103,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12129,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12155,7 +12161,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12181,7 +12187,7 @@
         <v>0</v>
       </c>
       <c r="H382" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12207,7 +12213,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12233,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12259,7 +12265,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12285,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="H386" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12311,7 +12317,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12337,7 +12343,7 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12363,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="H389" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12389,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="H390" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12415,7 +12421,7 @@
         <v>0.4651162790697674</v>
       </c>
       <c r="H391" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12441,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="H392" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12467,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12493,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12519,7 +12525,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12545,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12571,7 +12577,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12597,7 +12603,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12623,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="H399" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12649,7 +12655,7 @@
         <v>0.5256410256410257</v>
       </c>
       <c r="H400" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12675,7 +12681,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H401" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12701,7 +12707,7 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12727,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="H403" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12753,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12779,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="H405" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12805,7 +12811,7 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12831,7 +12837,7 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12857,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12883,7 +12889,7 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12909,7 +12915,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12935,7 +12941,7 @@
         <v>0</v>
       </c>
       <c r="H411" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12961,7 +12967,7 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12987,7 +12993,7 @@
         <v>0.4675324675324675</v>
       </c>
       <c r="H413" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13013,7 +13019,7 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13039,7 +13045,7 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13065,7 +13071,7 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13091,7 +13097,7 @@
         <v>0</v>
       </c>
       <c r="H417" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13117,7 +13123,7 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13143,7 +13149,7 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13169,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="H420" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13195,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13221,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="H422" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13247,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="H423" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13273,7 +13279,7 @@
         <v>1</v>
       </c>
       <c r="H424" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13299,7 +13305,7 @@
         <v>1</v>
       </c>
       <c r="H425" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13325,7 +13331,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13351,7 +13357,7 @@
         <v>0.5189873417721519</v>
       </c>
       <c r="H427" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13377,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="H428" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13403,7 +13409,7 @@
         <v>1</v>
       </c>
       <c r="H429" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13429,7 +13435,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13455,7 +13461,7 @@
         <v>0</v>
       </c>
       <c r="H431" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13481,7 +13487,7 @@
         <v>0.4683544303797468</v>
       </c>
       <c r="H432" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13507,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="H433" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13533,7 +13539,7 @@
         <v>0.4810126582278481</v>
       </c>
       <c r="H434" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13559,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="H435" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13585,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="H436" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13611,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="H437" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13637,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="H438" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13663,7 +13669,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13689,7 +13695,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13715,7 +13721,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13741,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="H442" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13767,7 +13773,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13793,7 +13799,7 @@
         <v>0.525</v>
       </c>
       <c r="H444" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13819,7 +13825,7 @@
         <v>1</v>
       </c>
       <c r="H445" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13845,7 +13851,7 @@
         <v>1</v>
       </c>
       <c r="H446" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13871,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="H447" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13897,7 +13903,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H448" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13923,7 +13929,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H449" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13949,7 +13955,7 @@
         <v>0.4880952380952381</v>
       </c>
       <c r="H450" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13975,7 +13981,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H451" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14001,7 +14007,7 @@
         <v>1</v>
       </c>
       <c r="H452" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14027,7 +14033,7 @@
         <v>0.5060240963855421</v>
       </c>
       <c r="H453" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14053,7 +14059,7 @@
         <v>0</v>
       </c>
       <c r="H454" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14079,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14105,7 +14111,7 @@
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14131,7 +14137,7 @@
         <v>1</v>
       </c>
       <c r="H457" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14157,7 +14163,7 @@
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14183,7 +14189,7 @@
         <v>0.5</v>
       </c>
       <c r="H459" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14209,7 +14215,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14235,7 +14241,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14261,7 +14267,7 @@
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14287,7 +14293,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14313,7 +14319,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14339,7 +14345,7 @@
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14365,7 +14371,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14391,7 +14397,7 @@
         <v>0.4878048780487805</v>
       </c>
       <c r="H467" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14417,7 +14423,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14443,7 +14449,7 @@
         <v>1</v>
       </c>
       <c r="H469" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14469,7 +14475,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14495,7 +14501,7 @@
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14521,7 +14527,7 @@
         <v>0.5060240963855421</v>
       </c>
       <c r="H472" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14547,7 +14553,7 @@
         <v>0.5</v>
       </c>
       <c r="H473" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14573,7 +14579,7 @@
         <v>0</v>
       </c>
       <c r="H474" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14599,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="H475" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14625,7 +14631,7 @@
         <v>0.4939759036144578</v>
       </c>
       <c r="H476" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14651,7 +14657,7 @@
         <v>0.5</v>
       </c>
       <c r="H477" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14677,7 +14683,7 @@
         <v>0</v>
       </c>
       <c r="H478" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14703,7 +14709,7 @@
         <v>0.4938271604938271</v>
       </c>
       <c r="H479" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14729,7 +14735,7 @@
         <v>0.5</v>
       </c>
       <c r="H480" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14755,7 +14761,7 @@
         <v>0</v>
       </c>
       <c r="H481" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14781,7 +14787,7 @@
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14807,7 +14813,7 @@
         <v>0.4936708860759494</v>
       </c>
       <c r="H483" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14833,7 +14839,7 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14859,7 +14865,7 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14885,7 +14891,7 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14911,7 +14917,7 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14937,7 +14943,7 @@
         <v>0.4883720930232557</v>
       </c>
       <c r="H488" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14963,7 +14969,7 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14989,7 +14995,7 @@
         <v>0.4823529411764707</v>
       </c>
       <c r="H490" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15015,7 +15021,7 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15041,7 +15047,7 @@
         <v>0.4880952380952381</v>
       </c>
       <c r="H492" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15067,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15093,7 +15099,7 @@
         <v>0</v>
       </c>
       <c r="H494" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15119,7 +15125,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15145,7 +15151,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15171,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15197,7 +15203,7 @@
         <v>0</v>
       </c>
       <c r="H498" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15223,7 +15229,7 @@
         <v>0</v>
       </c>
       <c r="H499" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15249,7 +15255,7 @@
         <v>0</v>
       </c>
       <c r="H500" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15275,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15301,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="H502" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15327,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15353,7 +15359,7 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15379,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15405,7 +15411,7 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15431,7 +15437,7 @@
         <v>0</v>
       </c>
       <c r="H507" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15457,7 +15463,7 @@
         <v>0.5063291139240507</v>
       </c>
       <c r="H508" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15483,7 +15489,7 @@
         <v>1</v>
       </c>
       <c r="H509" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15509,7 +15515,7 @@
         <v>0.4871794871794872</v>
       </c>
       <c r="H510" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15535,7 +15541,7 @@
         <v>1</v>
       </c>
       <c r="H511" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15561,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="H512" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15587,7 +15593,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15613,7 +15619,7 @@
         <v>1</v>
       </c>
       <c r="H514" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15639,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15665,7 +15671,7 @@
         <v>1</v>
       </c>
       <c r="H516" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15691,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="H517" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15717,7 +15723,7 @@
         <v>0</v>
       </c>
       <c r="H518" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15743,7 +15749,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15769,7 +15775,7 @@
         <v>0.5</v>
       </c>
       <c r="H520" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15795,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="H521" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15821,7 +15827,7 @@
         <v>1</v>
       </c>
       <c r="H522" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15847,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="H523" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15873,7 +15879,7 @@
         <v>1</v>
       </c>
       <c r="H524" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15899,7 +15905,7 @@
         <v>0.5</v>
       </c>
       <c r="H525" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15925,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="H526" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15951,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="H527" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15977,7 +15983,7 @@
         <v>1</v>
       </c>
       <c r="H528" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16003,7 +16009,7 @@
         <v>0.5139</v>
       </c>
       <c r="H529" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16029,7 +16035,7 @@
         <v>1</v>
       </c>
       <c r="H530" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16055,7 +16061,7 @@
         <v>1</v>
       </c>
       <c r="H531" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16081,7 +16087,7 @@
         <v>1</v>
       </c>
       <c r="H532" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16107,7 +16113,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16133,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="H534" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16159,7 +16165,7 @@
         <v>1</v>
       </c>
       <c r="H535" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16185,7 +16191,7 @@
         <v>1</v>
       </c>
       <c r="H536" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16211,7 +16217,7 @@
         <v>1</v>
       </c>
       <c r="H537" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16237,7 +16243,7 @@
         <v>0.5205</v>
       </c>
       <c r="H538" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16263,7 +16269,7 @@
         <v>0</v>
       </c>
       <c r="H539" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16289,7 +16295,7 @@
         <v>1</v>
       </c>
       <c r="H540" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16315,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16341,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="H542" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16367,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="H543" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16393,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="H544" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16419,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="H545" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16445,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="H546" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16471,7 +16477,7 @@
         <v>0</v>
       </c>
       <c r="H547" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16497,7 +16503,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16523,7 +16529,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16549,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="H550" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16575,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="H551" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16601,7 +16607,7 @@
         <v>0.5211</v>
       </c>
       <c r="H552" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16627,7 +16633,7 @@
         <v>0.5143</v>
       </c>
       <c r="H553" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16653,7 +16659,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H554" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16679,7 +16685,7 @@
         <v>0.5147</v>
       </c>
       <c r="H555" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16705,7 +16711,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H556" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16731,7 +16737,7 @@
         <v>0.5143</v>
       </c>
       <c r="H557" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16757,7 +16763,7 @@
         <v>0.5217000000000001</v>
       </c>
       <c r="H558" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16783,7 +16789,7 @@
         <v>0.5147</v>
       </c>
       <c r="H559" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16809,7 +16815,7 @@
         <v>0</v>
       </c>
       <c r="H560" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16835,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="H561" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16861,7 +16867,7 @@
         <v>0</v>
       </c>
       <c r="H562" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16887,7 +16893,7 @@
         <v>0</v>
       </c>
       <c r="H563" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16913,7 +16919,7 @@
         <v>0</v>
       </c>
       <c r="H564" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16939,7 +16945,7 @@
         <v>0.5072</v>
       </c>
       <c r="H565" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16965,7 +16971,7 @@
         <v>1</v>
       </c>
       <c r="H566" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -16991,7 +16997,7 @@
         <v>1</v>
       </c>
       <c r="H567" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17017,7 +17023,7 @@
         <v>1</v>
       </c>
       <c r="H568" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17043,7 +17049,7 @@
         <v>1</v>
       </c>
       <c r="H569" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17069,7 +17075,7 @@
         <v>1</v>
       </c>
       <c r="H570" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17095,7 +17101,7 @@
         <v>1</v>
       </c>
       <c r="H571" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17105,9 +17111,15 @@
       <c r="B572" t="s">
         <v>577</v>
       </c>
+      <c r="C572">
+        <v>1</v>
+      </c>
       <c r="D572">
         <v>1</v>
       </c>
+      <c r="E572">
+        <v>1</v>
+      </c>
       <c r="F572">
         <v>0</v>
       </c>
@@ -17115,7 +17127,53 @@
         <v>1</v>
       </c>
       <c r="H572" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8">
+      <c r="A573" s="1">
+        <v>571</v>
+      </c>
+      <c r="B573" t="s">
+        <v>578</v>
+      </c>
+      <c r="C573">
+        <v>0</v>
+      </c>
+      <c r="D573">
+        <v>1</v>
+      </c>
+      <c r="E573">
+        <v>0</v>
+      </c>
+      <c r="F573">
+        <v>0</v>
+      </c>
+      <c r="G573">
+        <v>1</v>
+      </c>
+      <c r="H573" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
+      <c r="A574" s="1">
+        <v>572</v>
+      </c>
+      <c r="B574" t="s">
         <v>579</v>
+      </c>
+      <c r="D574">
+        <v>1</v>
+      </c>
+      <c r="F574">
+        <v>0</v>
+      </c>
+      <c r="G574">
+        <v>1</v>
+      </c>
+      <c r="H574" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>
